--- a/PCB/V1.4 ALPS/AtoVproject 16n V1.4 ALPS BOM.xlsx
+++ b/PCB/V1.4 ALPS/AtoVproject 16n V1.4 ALPS BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthwork\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c2bfb013db24c9/Documents/GitHub/16n-AtoVproject-rework/PCB/V1.4 ALPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98879520-8F4E-40A0-AE9D-5485AC869731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{ED081493-C8F9-4166-AA94-E242B607050C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
